--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_8_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_8_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8720.497127442488</v>
+        <v>1735378.928361056</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8720.497127442488</v>
+        <v>1735378.928361056</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30852.20960064916</v>
+        <v>1861583.39242655</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30852.20960064916</v>
+        <v>1861583.39242655</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342129944.794872</v>
+        <v>53238837.01833297</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12257.81719568618</v>
+        <v>1228854.547157548</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23775.53182818916</v>
+        <v>2330809.457448567</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35293.24646069211</v>
+        <v>3432764.367739589</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48032.83404803675</v>
+        <v>4468512.315076423</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60772.42163538134</v>
+        <v>5504260.262413256</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>73512.00922272594</v>
+        <v>6540008.209750086</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>86449.10145653518</v>
+        <v>7583068.422137419</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99395.09975290959</v>
+        <v>8620506.522311635</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>112040.0728977944</v>
+        <v>9645423.985497942</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>124619.9316252153</v>
+        <v>10686190.775732</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>136314.9058964064</v>
+        <v>11772391.95799495</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>148009.8801675972</v>
+        <v>12858593.14025791</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>159704.854438789</v>
+        <v>13944794.32252085</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>172404.2521271438</v>
+        <v>14980542.26985769</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>185028.8990914098</v>
+        <v>15995528.77256942</v>
       </c>
     </row>
   </sheetData>
